--- a/2y3.xlsx
+++ b/2y3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e64e3084cf54c9d/Documentos/Semestre 6/Instrumentos/IIExamen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierhernandez/Desktop/CA0308 | Instrumentos financieros/IIExamen_Instrumentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D589BC4F-08F7-40C2-AEEF-8C5F8F4A6D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4DAF9B-5674-0F4B-961B-9F554FEE5C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{459707A5-FD1E-4855-898B-A875C8C90F9B}"/>
+    <workbookView xWindow="14940" yWindow="500" windowWidth="35900" windowHeight="26660" xr2:uid="{459707A5-FD1E-4855-898B-A875C8C90F9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio2" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Ejercicio3!$D$32</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -31,7 +31,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$G$9</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Ejercicio3!$D$24</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -66,14 +66,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Fijo</t>
   </si>
   <si>
-    <t>Annual</t>
-  </si>
-  <si>
     <t>Float</t>
   </si>
   <si>
@@ -131,26 +128,148 @@
     <t>N(d2)</t>
   </si>
   <si>
-    <t>val</t>
-  </si>
-  <si>
     <t>Solver</t>
   </si>
   <si>
     <t>Manual</t>
+  </si>
+  <si>
+    <t>Tasas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ejercicicio 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Una entidad financiera ha formalizado un swap en el que acordó recibir pagos trimestrales a una tasa de interés del 2 % anual y pagar la tasa de referencia a tres meses SOFR sobre un principal nocional de $100 millones. El swap tiene ahora una vida remanente de 10 meses. Suponga que las tasas de interés libre de riesgo con capitalización continua (calculados a partir del SOFR) para 1 mes, 4 meses, 7 meses y 10 meses son 1,4 %, 1,6 %, 1,7 % y 1,8 %, respectivamente. Suponga también que la tasa libre de riesgo de capitalización continua observado en los dos últimos meses es del 1,1 %. Construya el flujo en cada periodo en una tabla y valore el swap.</t>
+    </r>
+  </si>
+  <si>
+    <t>Periodicidad</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Porcentaje del principal</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Observada</t>
+  </si>
+  <si>
+    <t>Tasas libre de riesgo (SOFR)</t>
+  </si>
+  <si>
+    <t>Valoración del SWAP</t>
+  </si>
+  <si>
+    <t>Valores iniciales</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ejercicio 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Una opción de compra sobre una acción que no paga dividendos tiene un precio de mercado de $2,5. El precio de la acción es de $15, el precio de ejercicio es de $13, el plazo de vencimiento es de 3 meses y la tasa de interés libre de riesgo es del 5 % anual. Determine la volatilidad implícita de dos formas: </t>
+    </r>
+  </si>
+  <si>
+    <t>c inicial</t>
+  </si>
+  <si>
+    <t>Calculo normales</t>
+  </si>
+  <si>
+    <t>c iterativo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de forma iterativa manualmente tomando como valor inicial sigma = 0,2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> utilizando el Solver de Excel o alguno rutina de optimización para determinar directamente el sigma.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="179" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,16 +284,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -182,27 +320,342 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,8 +670,74 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4316</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>162280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9683B60-4A22-76D9-9200-1F6938520E12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7433816" y="1573389"/>
+          <a:ext cx="3459964" cy="2020735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,490 +1053,737 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C235EFB6-EE57-41CB-BC85-9531EA83890F}">
-  <dimension ref="B5:L14"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="2" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="H10" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="H11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="21">
         <v>0.02</v>
       </c>
-      <c r="D6" s="2">
-        <f>C6/4</f>
+      <c r="D12" s="21">
+        <f>C12/4</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G6" s="4">
-        <v>100000000</v>
-      </c>
-      <c r="H6" s="8">
-        <f>G6*D6</f>
+      <c r="E12" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <f>I17*D12</f>
         <v>500000</v>
       </c>
-      <c r="I6" s="7">
-        <f>$G$6*F10</f>
+      <c r="I12" s="26">
+        <f>$I$17*F17</f>
         <v>300450.45033770811</v>
       </c>
-      <c r="J6" s="7">
-        <f>H6-I6</f>
+      <c r="J12" s="26">
+        <f>H12-I12</f>
         <v>199549.54966229189</v>
       </c>
-      <c r="K6">
-        <f>EXP(-C10*B10)</f>
+      <c r="K12" s="20">
+        <f>EXP(-C17*B17)</f>
         <v>0.99883401362430557</v>
       </c>
-      <c r="L6">
-        <f>J6*K6</f>
+      <c r="L12" s="26">
+        <f>J12*K12</f>
         <v>199316.87760610969</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <f>H6</f>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="25">
+        <f>H12</f>
         <v>500000</v>
       </c>
-      <c r="I7" s="7">
-        <f>$G$6*F11</f>
+      <c r="I13" s="26">
+        <f>$I$17*F18</f>
         <v>417535.92911184521</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" ref="J7:J9" si="0">H7-I7</f>
+      <c r="J13" s="26">
+        <f t="shared" ref="J13:J15" si="0">H13-I13</f>
         <v>82464.070888154791</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K9" si="1">EXP(-C11*B11)</f>
+      <c r="K13" s="20">
+        <f>EXP(-C18*B18)</f>
         <v>0.9946808636386143</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7:L9" si="2">J7*K7</f>
+      <c r="L13" s="26">
+        <f t="shared" ref="L13:L15" si="1">J13*K13</f>
         <v>82025.433250185713</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="H8" s="8">
-        <f>H7</f>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="H14" s="25">
+        <f>H13</f>
         <v>500000</v>
       </c>
-      <c r="I8" s="7">
-        <f>$G$6*F12</f>
+      <c r="I14" s="26">
+        <f>$I$17*F19</f>
         <v>459385.2870931059</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J14" s="26">
         <f t="shared" si="0"/>
         <v>40614.712906894099</v>
       </c>
-      <c r="K8">
+      <c r="K14" s="20">
+        <f>EXP(-C19*B19)</f>
+        <v>0.99013234133974903</v>
+      </c>
+      <c r="L14" s="26">
         <f t="shared" si="1"/>
-        <v>0.99013234133974903</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
         <v>40213.940783344777</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="8">
-        <f>H8</f>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="H15" s="25">
+        <f>H14</f>
         <v>500000</v>
       </c>
-      <c r="I9" s="7">
-        <f>$G$6*F13</f>
+      <c r="I15" s="26">
+        <f>$I$17*F20</f>
         <v>509627.53925296589</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J15" s="26">
         <f t="shared" si="0"/>
         <v>-9627.5392529658857</v>
       </c>
-      <c r="K9">
+      <c r="K15" s="20">
+        <f>EXP(-C20*B20)</f>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="L15" s="26">
         <f t="shared" si="1"/>
-        <v>0.98511193960306265</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
         <v>-9484.2038670938437</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="20">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C17" s="21">
         <v>1.4E-2</v>
       </c>
-      <c r="D10" s="5">
-        <f>(C7/3*2+C10/3)</f>
+      <c r="D17" s="22">
+        <f>(E12/3*2+C17/3)</f>
         <v>1.2E-2</v>
       </c>
-      <c r="E10" s="6">
-        <f>(EXP(D10/4)-1)*4</f>
+      <c r="E17" s="23">
+        <f>(EXP(D17/4)-1)*4</f>
         <v>1.2018018013508325E-2</v>
       </c>
-      <c r="F10" s="6">
-        <f>E10/4</f>
+      <c r="F17" s="23">
+        <f>E17/4</f>
         <v>3.0045045033770812E-3</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <f>SUM(L6:L9)</f>
+      <c r="H17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="28">
+        <v>100000000</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="31">
+        <f>SUM(L12:L15)</f>
         <v>312072.04777254636</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="20">
         <f>4/12</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C18" s="21">
         <v>1.6E-2</v>
       </c>
-      <c r="D11" s="5">
-        <f>(C11*B11-C10*B10)*4</f>
+      <c r="D18" s="22">
+        <f>(C18*B18-C17*B17)*4</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="E11" s="6">
-        <f t="shared" ref="E11:E13" si="3">(EXP(D11/4)-1)*4</f>
+      <c r="E18" s="23">
+        <f t="shared" ref="E18:E20" si="2">(EXP(D18/4)-1)*4</f>
         <v>1.6701437164473809E-2</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" ref="F11:F13" si="4">E11/4</f>
+      <c r="F18" s="23">
+        <f>E18/4</f>
         <v>4.1753592911184523E-3</v>
       </c>
-      <c r="L11" s="5">
-        <f>L10/G6</f>
+      <c r="I18" s="4"/>
+      <c r="K18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="32">
+        <f>L17/I17</f>
         <v>3.1207204777254634E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="20">
         <f>7/12</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C19" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D12" s="5">
-        <f t="shared" ref="D12:D13" si="5">(C12*B12-C11*B11)*4</f>
+      <c r="D19" s="22">
+        <f t="shared" ref="D19:D20" si="3">(C19*B19-C18*B18)*4</f>
         <v>1.8333333333333337E-2</v>
       </c>
-      <c r="E12" s="6">
-        <f t="shared" si="3"/>
+      <c r="E19" s="23">
+        <f t="shared" si="2"/>
         <v>1.8375411483724235E-2</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="4"/>
+      <c r="F19" s="23">
+        <f t="shared" ref="F19:F20" si="4">E19/4</f>
         <v>4.5938528709310589E-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="K19" s="27"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="20">
         <f>10/12</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C20" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D13" s="5">
-        <f t="shared" si="5"/>
+      <c r="D20" s="22">
+        <f t="shared" si="3"/>
         <v>2.0333333333333328E-2</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="3"/>
+      <c r="E20" s="23">
+        <f t="shared" si="2"/>
         <v>2.0385101570118636E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F20" s="23">
         <f t="shared" si="4"/>
         <v>5.0962753925296589E-3</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K14" s="2"/>
-      <c r="L14" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:L7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:L10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265A1324-E2FE-4A89-9733-F246F159857D}">
-  <dimension ref="B4:G29"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C9" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="G9" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19">
+        <v>15</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D11" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="30">
+        <v>2.1972072266879419</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>2.1616660728723716</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="30">
+        <v>2.322640830446506</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="30">
+        <v>2.5072344837747877</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="G15" s="30">
+        <v>0.39</v>
+      </c>
+      <c r="H15" s="30">
+        <v>2.4870386229773658</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="30">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H16" s="30">
+        <v>2.4970975011675112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="G17" s="30">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H17" s="30">
+        <v>2.5011430569956996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D18" s="19">
+        <f>(LN(D10/D12)+(D14+D32^2/2)*D13)/(D32*SQRT(D13))</f>
+        <v>0.88410961692657553</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="H18" s="30">
+        <v>2.5001305050280038</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
-        <f>(LN(D4/D6)+(D8+D9^2/2)*D7)/(D9*SQRT(D7))</f>
-        <v>0.88410961692657553</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>2.5</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D19" s="19">
+        <f>D18-D32*SQRT(D13)</f>
+        <v>0.68589221271327294</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0.39624999999999999</v>
+      </c>
+      <c r="H19" s="30">
+        <v>2.4996245190454776</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19">
+        <f>_xlfn.NORM.S.DIST(D18,TRUE)</f>
+        <v>0.81168147885830944</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0.39637499999999998</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2.4998774878387362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19">
+        <f>_xlfn.NORM.S.DIST(D19,TRUE)</f>
+        <v>0.75360945940768564</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0.3964375</v>
+      </c>
+      <c r="H21" s="30">
+        <v>2.5000039903862152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="30">
+        <v>0.3964355</v>
+      </c>
+      <c r="H22" s="30">
+        <v>2.499999942117352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G23" s="30">
+        <v>0.39643600000000001</v>
+      </c>
+      <c r="H23" s="30">
+        <v>2.5000009541834061</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D10*D20-D12*EXP(-D14*D13)*D21</f>
+        <v>2.4999985422827145</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.39643557000000001</v>
+      </c>
+      <c r="H24" s="30">
+        <v>2.5000000838065528</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="48">
+        <v>0.39643552999999998</v>
+      </c>
+      <c r="H25" s="30">
+        <v>2.5000000028412934</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="49"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
-        <f>G4-D9*SQRT(D7)</f>
-        <v>0.68589221271327294</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <f>_xlfn.NORM.S.DIST(G4,TRUE)</f>
-        <v>0.81168147885830944</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>0.25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <f>_xlfn.NORM.S.DIST(G5,TRUE)</f>
-        <v>0.75360945940768564</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+      <c r="D32" s="48">
         <v>0.39643480842660517</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <f>D4*G6-D6*EXP(-D8*D7)*G7</f>
-        <v>2.4999985422827145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>2.1972072266879419</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="D13">
-        <v>2.1616660728723716</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>2.322640830446506</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D15">
-        <v>2.5072344837747877</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="10">
-        <v>0.39</v>
-      </c>
-      <c r="D16">
-        <v>2.4870386229773658</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="10">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D17">
-        <v>2.4970975011675112</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="10">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D18">
-        <v>2.5011430569956996</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="10">
-        <v>0.39650000000000002</v>
-      </c>
-      <c r="D19">
-        <v>2.5001305050280038</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="10">
-        <v>0.39624999999999999</v>
-      </c>
-      <c r="D20">
-        <v>2.4996245190454776</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="10">
-        <v>0.39637499999999998</v>
-      </c>
-      <c r="D21">
-        <v>2.4998774878387362</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="10">
-        <v>0.3964375</v>
-      </c>
-      <c r="D22">
-        <v>2.5000039903862152</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="10">
-        <v>0.3964355</v>
-      </c>
-      <c r="D23">
-        <v>2.499999942117352</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="10">
-        <v>0.39643600000000001</v>
-      </c>
-      <c r="D24">
-        <v>2.5000009541834061</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="10">
-        <v>0.39643557000000001</v>
-      </c>
-      <c r="D25">
-        <v>2.5000000838065528</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="10">
-        <v>0.39643552999999998</v>
-      </c>
-      <c r="D26">
-        <v>2.5000000028412934</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="10"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B2:I5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B28:I28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>